--- a/nodes_source_analyses/energy/energy_power_mv_transport_network_electricity.xlsx
+++ b/nodes_source_analyses/energy/energy_power_mv_transport_network_electricity.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="0" windowWidth="25600" windowHeight="16100" tabRatio="762"/>
+    <workbookView xWindow="1940" yWindow="460" windowWidth="25600" windowHeight="16100" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -256,9 +264,6 @@
     <t>Output to csv</t>
   </si>
   <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
@@ -317,6 +322,10 @@
   </si>
   <si>
     <t>energy_power_mv_transport_network_electricity.ad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
   </si>
 </sst>
 </file>
@@ -327,7 +336,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -424,11 +433,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <b/>
@@ -1021,7 +1025,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1059,19 +1063,19 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1089,17 +1093,16 @@
     <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1118,31 +1121,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1412,81 +1415,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -1923,52 +1861,52 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="12"/>
+    <col min="1" max="1" width="3.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="17" customFormat="1">
+    <row r="1" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15"/>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -1977,29 +1915,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="39" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="40"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="41"/>
       <c r="C10" s="42"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="41" t="s">
         <v>57</v>
@@ -2008,33 +1946,33 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="41"/>
       <c r="C12" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="41"/>
       <c r="C13" s="44" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="41"/>
       <c r="C14" s="42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="41"/>
       <c r="C15" s="42"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="41" t="s">
         <v>62</v>
@@ -2043,49 +1981,49 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="41"/>
       <c r="C17" s="46" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="41"/>
       <c r="C18" s="47" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="41"/>
       <c r="C19" s="48" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="49"/>
       <c r="C20" s="50" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="49"/>
       <c r="C21" s="51" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="49"/>
       <c r="C22" s="52" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="49"/>
       <c r="C23" s="53" t="s">
         <v>70</v>
@@ -2094,76 +2032,71 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="24" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="24" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="24" customWidth="1"/>
     <col min="3" max="3" width="46" style="24" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="24" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="24" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="24" customWidth="1"/>
     <col min="7" max="7" width="45" style="24" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="24" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="24" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="24"/>
+    <col min="8" max="8" width="5.140625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="24" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="2:11">
-      <c r="B2" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="93"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="92"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="94"/>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="96"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
+    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="95"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="97"/>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="22"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="25"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -2174,7 +2107,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="26"/>
     </row>
-    <row r="7" spans="2:11" s="31" customFormat="1" ht="18">
+    <row r="7" spans="2:11" s="31" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="54"/>
       <c r="C7" s="10" t="s">
         <v>21</v>
@@ -2195,7 +2128,7 @@
       </c>
       <c r="J7" s="61"/>
     </row>
-    <row r="8" spans="2:11" s="31" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="31" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="14"/>
       <c r="C8" s="9"/>
       <c r="D8" s="20"/>
@@ -2206,10 +2139,10 @@
       <c r="I8" s="9"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="2:11" s="31" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:11" s="31" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="14"/>
       <c r="C9" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="9"/>
@@ -2219,7 +2152,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="2:11" ht="16" thickBot="1">
+    <row r="10" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="27"/>
       <c r="C10" s="23" t="s">
         <v>22</v>
@@ -2233,13 +2166,13 @@
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="70" t="s">
-        <v>84</v>
+      <c r="I10" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="J10" s="62"/>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="2:11" ht="16" thickBot="1">
+    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="27"/>
       <c r="C11" s="23" t="s">
         <v>23</v>
@@ -2253,16 +2186,16 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
-      <c r="I11" s="70" t="s">
-        <v>84</v>
+      <c r="I11" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="J11" s="62"/>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1">
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="27"/>
-      <c r="C12" s="66" t="s">
-        <v>76</v>
+      <c r="C12" s="65" t="s">
+        <v>75</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>3</v>
@@ -2273,13 +2206,13 @@
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
-      <c r="I12" s="70" t="s">
-        <v>84</v>
+      <c r="I12" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="J12" s="62"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="27"/>
       <c r="C13" s="23" t="s">
         <v>25</v>
@@ -2293,13 +2226,13 @@
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
-      <c r="I13" s="70" t="s">
-        <v>84</v>
+      <c r="I13" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="J13" s="62"/>
       <c r="K13" s="22"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="27"/>
       <c r="C14" s="23" t="s">
         <v>26</v>
@@ -2313,13 +2246,13 @@
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
-      <c r="I14" s="70" t="s">
-        <v>84</v>
+      <c r="I14" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="J14" s="62"/>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
       <c r="C15" s="23" t="s">
         <v>27</v>
@@ -2335,12 +2268,12 @@
         <v>20</v>
       </c>
       <c r="H15" s="23"/>
-      <c r="I15" s="70" t="s">
-        <v>84</v>
+      <c r="I15" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="J15" s="62"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="27"/>
       <c r="C16" s="23" t="s">
         <v>28</v>
@@ -2356,15 +2289,15 @@
         <v>39</v>
       </c>
       <c r="H16" s="23"/>
-      <c r="I16" s="70" t="s">
-        <v>84</v>
+      <c r="I16" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="J16" s="62"/>
     </row>
-    <row r="17" spans="2:10" ht="16" thickBot="1">
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="27"/>
       <c r="C17" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>44</v>
@@ -2375,15 +2308,15 @@
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
-      <c r="I17" s="70" t="s">
-        <v>85</v>
+      <c r="I17" s="69" t="s">
+        <v>84</v>
       </c>
       <c r="J17" s="62"/>
     </row>
-    <row r="18" spans="2:10" ht="16" thickBot="1">
+    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="27"/>
       <c r="C18" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>44</v>
@@ -2394,18 +2327,18 @@
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
-      <c r="I18" s="70" t="s">
-        <v>85</v>
+      <c r="I18" s="69" t="s">
+        <v>84</v>
       </c>
       <c r="J18" s="62"/>
     </row>
-    <row r="19" spans="2:10" ht="16" thickBot="1">
+    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="27"/>
       <c r="C19" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>80</v>
       </c>
       <c r="E19" s="34">
         <v>142200</v>
@@ -2413,12 +2346,12 @@
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
-      <c r="I19" s="70" t="s">
-        <v>84</v>
+      <c r="I19" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="J19" s="62"/>
     </row>
-    <row r="20" spans="2:10" ht="16" thickBot="1">
+    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="27"/>
       <c r="C20" s="35" t="s">
         <v>45</v>
@@ -2434,12 +2367,12 @@
         <v>50</v>
       </c>
       <c r="H20" s="23"/>
-      <c r="I20" s="70" t="s">
-        <v>84</v>
+      <c r="I20" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="J20" s="62"/>
     </row>
-    <row r="21" spans="2:10" ht="16" thickBot="1">
+    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="27"/>
       <c r="C21" s="35" t="s">
         <v>46</v>
@@ -2455,12 +2388,12 @@
         <v>51</v>
       </c>
       <c r="H21" s="23"/>
-      <c r="I21" s="70" t="s">
-        <v>84</v>
+      <c r="I21" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="J21" s="62"/>
     </row>
-    <row r="22" spans="2:10" ht="16" thickBot="1">
+    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="27"/>
       <c r="C22" s="35" t="s">
         <v>47</v>
@@ -2476,12 +2409,12 @@
         <v>52</v>
       </c>
       <c r="H22" s="23"/>
-      <c r="I22" s="70" t="s">
-        <v>84</v>
+      <c r="I22" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="J22" s="62"/>
     </row>
-    <row r="23" spans="2:10" ht="16" thickBot="1">
+    <row r="23" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="27"/>
       <c r="C23" s="35" t="s">
         <v>48</v>
@@ -2497,12 +2430,12 @@
         <v>53</v>
       </c>
       <c r="H23" s="23"/>
-      <c r="I23" s="70" t="s">
-        <v>84</v>
+      <c r="I23" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="J23" s="62"/>
     </row>
-    <row r="24" spans="2:10" ht="16" thickBot="1">
+    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="27"/>
       <c r="C24" s="35" t="s">
         <v>49</v>
@@ -2518,12 +2451,12 @@
         <v>54</v>
       </c>
       <c r="H24" s="23"/>
-      <c r="I24" s="70" t="s">
-        <v>84</v>
+      <c r="I24" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="J24" s="62"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="27"/>
       <c r="C25" s="38"/>
       <c r="D25" s="57"/>
@@ -2534,10 +2467,10 @@
       <c r="I25" s="22"/>
       <c r="J25" s="62"/>
     </row>
-    <row r="26" spans="2:10" ht="16" thickBot="1">
+    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="27"/>
       <c r="C26" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" s="57"/>
       <c r="E26" s="58"/>
@@ -2547,13 +2480,13 @@
       <c r="I26" s="22"/>
       <c r="J26" s="62"/>
     </row>
-    <row r="27" spans="2:10" ht="16" thickBot="1">
+    <row r="27" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="27"/>
       <c r="C27" s="23" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" s="34">
         <v>0</v>
@@ -2563,18 +2496,18 @@
         <v>6</v>
       </c>
       <c r="H27" s="23"/>
-      <c r="I27" s="70" t="s">
-        <v>84</v>
+      <c r="I27" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="J27" s="62"/>
     </row>
-    <row r="28" spans="2:10" ht="16" thickBot="1">
+    <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="27"/>
       <c r="C28" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" s="34">
         <v>0</v>
@@ -2584,18 +2517,18 @@
         <v>40</v>
       </c>
       <c r="H28" s="23"/>
-      <c r="I28" s="70" t="s">
-        <v>84</v>
+      <c r="I28" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="J28" s="62"/>
     </row>
-    <row r="29" spans="2:10" ht="16" thickBot="1">
+    <row r="29" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="27"/>
       <c r="C29" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" s="34">
         <v>0</v>
@@ -2605,18 +2538,18 @@
         <v>16</v>
       </c>
       <c r="H29" s="23"/>
-      <c r="I29" s="70" t="s">
-        <v>84</v>
+      <c r="I29" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="J29" s="62"/>
     </row>
-    <row r="30" spans="2:10" ht="16" thickBot="1">
+    <row r="30" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="27"/>
       <c r="C30" s="23" t="s">
         <v>31</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" s="34">
         <v>0</v>
@@ -2626,18 +2559,18 @@
         <v>19</v>
       </c>
       <c r="H30" s="23"/>
-      <c r="I30" s="70" t="s">
-        <v>84</v>
+      <c r="I30" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="J30" s="62"/>
     </row>
-    <row r="31" spans="2:10" ht="16" thickBot="1">
+    <row r="31" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
       <c r="C31" s="23" t="s">
         <v>32</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" s="56">
         <v>86884.467919999996</v>
@@ -2647,18 +2580,18 @@
         <v>41</v>
       </c>
       <c r="H31" s="23"/>
-      <c r="I31" s="70" t="s">
-        <v>84</v>
+      <c r="I31" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="J31" s="62"/>
     </row>
-    <row r="32" spans="2:10" ht="16" thickBot="1">
+    <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="27"/>
       <c r="C32" s="23" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E32" s="33">
         <v>0</v>
@@ -2668,12 +2601,12 @@
         <v>42</v>
       </c>
       <c r="H32" s="23"/>
-      <c r="I32" s="70" t="s">
-        <v>84</v>
+      <c r="I32" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="J32" s="62"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="27"/>
       <c r="C33" s="23" t="s">
         <v>34</v>
@@ -2689,12 +2622,12 @@
         <v>43</v>
       </c>
       <c r="H33" s="23"/>
-      <c r="I33" s="70" t="s">
-        <v>84</v>
+      <c r="I33" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="J33" s="62"/>
     </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="27"/>
       <c r="C34" s="23" t="s">
         <v>37</v>
@@ -2702,7 +2635,7 @@
       <c r="D34" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="67">
+      <c r="E34" s="66">
         <v>5.5E-2</v>
       </c>
       <c r="F34" s="23"/>
@@ -2710,12 +2643,12 @@
         <v>15</v>
       </c>
       <c r="H34" s="23"/>
-      <c r="I34" s="70" t="s">
-        <v>84</v>
+      <c r="I34" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="J34" s="62"/>
     </row>
-    <row r="35" spans="2:10" ht="16" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="27"/>
       <c r="C35" s="23" t="s">
         <v>24</v>
@@ -2729,12 +2662,12 @@
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
-      <c r="I35" s="70" t="s">
-        <v>84</v>
+      <c r="I35" s="69" t="s">
+        <v>83</v>
       </c>
       <c r="J35" s="62"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="27"/>
       <c r="C36" s="22"/>
       <c r="D36" s="13"/>
@@ -2745,20 +2678,20 @@
       <c r="I36" s="22"/>
       <c r="J36" s="62"/>
     </row>
-    <row r="37" spans="2:10" ht="16" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="27"/>
       <c r="C37" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D37" s="57"/>
-      <c r="E37" s="68"/>
+      <c r="E37" s="67"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
       <c r="J37" s="62"/>
     </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="27"/>
       <c r="C38" s="23" t="s">
         <v>35</v>
@@ -2774,12 +2707,12 @@
         <v>18</v>
       </c>
       <c r="H38" s="23"/>
-      <c r="I38" s="71" t="s">
-        <v>84</v>
+      <c r="I38" s="70" t="s">
+        <v>83</v>
       </c>
       <c r="J38" s="62"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="27"/>
       <c r="C39" s="23" t="s">
         <v>36</v>
@@ -2795,12 +2728,12 @@
         <v>17</v>
       </c>
       <c r="H39" s="23"/>
-      <c r="I39" s="71" t="s">
-        <v>84</v>
+      <c r="I39" s="70" t="s">
+        <v>83</v>
       </c>
       <c r="J39" s="62"/>
     </row>
-    <row r="40" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="40" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="28"/>
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
@@ -2817,43 +2750,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2862,574 +2758,573 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:R41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="63" customWidth="1"/>
-    <col min="2" max="2" width="2.625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="5.25" style="24" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="24" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="24" customWidth="1"/>
-    <col min="6" max="6" width="2.625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="30.75" style="63" customWidth="1"/>
-    <col min="8" max="8" width="2.625" style="63" customWidth="1"/>
-    <col min="9" max="18" width="10.625" style="64"/>
-    <col min="19" max="16384" width="10.625" style="63"/>
+    <col min="1" max="1" width="2.5703125" style="63" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="2.5703125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="63" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" style="63" customWidth="1"/>
+    <col min="9" max="16384" width="10.7109375" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="B2" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3" s="93"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="95"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="93"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="95"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="96"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="98"/>
-    </row>
-    <row r="6" spans="1:8">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="91"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="92"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="94"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="92"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="94"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="95"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="97"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D6" s="22"/>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="65"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="78"/>
-    </row>
-    <row r="8" spans="1:8" ht="16" thickBot="1">
-      <c r="A8" s="65"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="64"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="77"/>
+    </row>
+    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="64"/>
       <c r="B8" s="41"/>
       <c r="C8" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="E8" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="79"/>
-    </row>
-    <row r="9" spans="1:8" ht="16" thickBot="1">
-      <c r="A9" s="65"/>
+        <v>72</v>
+      </c>
+      <c r="H8" s="78"/>
+    </row>
+    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="64"/>
       <c r="B9" s="41"/>
-      <c r="C9" s="66">
+      <c r="C9" s="65">
         <v>1</v>
       </c>
-      <c r="D9" s="89">
+      <c r="D9" s="88">
         <v>5</v>
       </c>
-      <c r="E9" s="88">
+      <c r="E9" s="87">
         <v>0.1</v>
       </c>
-      <c r="F9" s="69"/>
-      <c r="G9" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="79"/>
-    </row>
-    <row r="10" spans="1:8" ht="16" thickBot="1">
-      <c r="A10" s="65"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="78"/>
+    </row>
+    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="64"/>
       <c r="B10" s="41"/>
-      <c r="C10" s="66">
+      <c r="C10" s="65">
         <v>2</v>
       </c>
-      <c r="D10" s="89">
+      <c r="D10" s="88">
         <v>5</v>
       </c>
-      <c r="E10" s="88">
+      <c r="E10" s="87">
         <v>0.27</v>
       </c>
-      <c r="F10" s="69"/>
-      <c r="G10" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="79"/>
-    </row>
-    <row r="11" spans="1:8" ht="16" thickBot="1">
-      <c r="A11" s="65"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="66">
+      <c r="F10" s="68"/>
+      <c r="G10" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="78"/>
+    </row>
+    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="64"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="65">
         <v>3</v>
       </c>
-      <c r="D11" s="89">
+      <c r="D11" s="88">
         <v>5</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <v>0.34</v>
       </c>
-      <c r="F11" s="69"/>
-      <c r="G11" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="79"/>
-    </row>
-    <row r="12" spans="1:8" ht="16" thickBot="1">
-      <c r="A12" s="65"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="66">
+      <c r="F11" s="68"/>
+      <c r="G11" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="78"/>
+    </row>
+    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="64"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="65">
         <v>4</v>
       </c>
-      <c r="D12" s="89">
+      <c r="D12" s="88">
         <v>5</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <v>0.39</v>
       </c>
-      <c r="F12" s="69"/>
-      <c r="G12" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="79"/>
-    </row>
-    <row r="13" spans="1:8" ht="16" thickBot="1">
-      <c r="A13" s="65"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="66">
+      <c r="F12" s="68"/>
+      <c r="G12" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="78"/>
+    </row>
+    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="64"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="65">
         <v>5</v>
       </c>
-      <c r="D13" s="89">
+      <c r="D13" s="88">
         <v>5</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <v>0.44</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" s="79"/>
-    </row>
-    <row r="14" spans="1:8" ht="16" thickBot="1">
-      <c r="A14" s="65"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="66">
+      <c r="F13" s="68"/>
+      <c r="G13" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="78"/>
+    </row>
+    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="64"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="65">
         <v>6</v>
       </c>
-      <c r="D14" s="89">
+      <c r="D14" s="88">
         <v>5</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <v>0.47</v>
       </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="79"/>
-    </row>
-    <row r="15" spans="1:8" ht="16" thickBot="1">
-      <c r="A15" s="65"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="66">
+      <c r="F14" s="68"/>
+      <c r="G14" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="78"/>
+    </row>
+    <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="64"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="65">
         <v>7</v>
       </c>
-      <c r="D15" s="89">
+      <c r="D15" s="88">
         <v>5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <v>0.51</v>
       </c>
-      <c r="F15" s="69"/>
-      <c r="G15" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15" s="79"/>
-    </row>
-    <row r="16" spans="1:8" ht="16" thickBot="1">
-      <c r="A16" s="65"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="66">
+      <c r="F15" s="68"/>
+      <c r="G15" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="78"/>
+    </row>
+    <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="64"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="65">
         <v>8</v>
       </c>
-      <c r="D16" s="89">
+      <c r="D16" s="88">
         <v>5</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <v>0.54</v>
       </c>
-      <c r="F16" s="69"/>
-      <c r="G16" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="79"/>
-    </row>
-    <row r="17" spans="1:8" ht="16" thickBot="1">
-      <c r="A17" s="65"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="66">
+      <c r="F16" s="68"/>
+      <c r="G16" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="78"/>
+    </row>
+    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="64"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="65">
         <v>9</v>
       </c>
-      <c r="D17" s="89">
+      <c r="D17" s="88">
         <v>5</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="H17" s="79"/>
-    </row>
-    <row r="18" spans="1:8" ht="16" thickBot="1">
-      <c r="A18" s="65"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="66">
+      <c r="F17" s="68"/>
+      <c r="G17" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="78"/>
+    </row>
+    <row r="18" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="64"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="65">
         <v>10</v>
       </c>
-      <c r="D18" s="89">
+      <c r="D18" s="88">
         <v>5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <v>0.6</v>
       </c>
-      <c r="F18" s="69"/>
-      <c r="G18" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18" s="79"/>
-    </row>
-    <row r="19" spans="1:8" ht="16" thickBot="1">
-      <c r="A19" s="65"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="66">
+      <c r="F18" s="68"/>
+      <c r="G18" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="78"/>
+    </row>
+    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="64"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="65">
         <v>11</v>
       </c>
-      <c r="D19" s="89">
+      <c r="D19" s="88">
         <v>5</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <v>0.63</v>
       </c>
-      <c r="F19" s="69"/>
-      <c r="G19" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" s="79"/>
-    </row>
-    <row r="20" spans="1:8" ht="16" thickBot="1">
-      <c r="A20" s="65"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="66">
+      <c r="F19" s="68"/>
+      <c r="G19" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="78"/>
+    </row>
+    <row r="20" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="64"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="65">
         <v>12</v>
       </c>
-      <c r="D20" s="89">
+      <c r="D20" s="88">
         <v>5</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <v>0.66</v>
       </c>
-      <c r="F20" s="69"/>
-      <c r="G20" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="79"/>
-    </row>
-    <row r="21" spans="1:8" ht="16" thickBot="1">
-      <c r="A21" s="65"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="66">
+      <c r="F20" s="68"/>
+      <c r="G20" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="78"/>
+    </row>
+    <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="64"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="65">
         <v>13</v>
       </c>
-      <c r="D21" s="89">
+      <c r="D21" s="88">
         <v>5</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <v>0.69</v>
       </c>
-      <c r="F21" s="69"/>
-      <c r="G21" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="79"/>
-    </row>
-    <row r="22" spans="1:8" ht="16" thickBot="1">
-      <c r="A22" s="65"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="66">
+      <c r="F21" s="68"/>
+      <c r="G21" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="78"/>
+    </row>
+    <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="64"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="65">
         <v>14</v>
       </c>
-      <c r="D22" s="89">
+      <c r="D22" s="88">
         <v>5</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <v>0.72</v>
       </c>
-      <c r="F22" s="69"/>
-      <c r="G22" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="H22" s="79"/>
-    </row>
-    <row r="23" spans="1:8" ht="16" thickBot="1">
-      <c r="A23" s="65"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="66">
+      <c r="F22" s="68"/>
+      <c r="G22" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="78"/>
+    </row>
+    <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="64"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="65">
         <v>15</v>
       </c>
-      <c r="D23" s="89">
+      <c r="D23" s="88">
         <v>5</v>
       </c>
-      <c r="E23" s="88">
+      <c r="E23" s="87">
         <v>0.76</v>
       </c>
-      <c r="F23" s="69"/>
-      <c r="G23" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23" s="79"/>
-    </row>
-    <row r="24" spans="1:8" ht="16" thickBot="1">
-      <c r="A24" s="65"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="66">
+      <c r="F23" s="68"/>
+      <c r="G23" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" s="78"/>
+    </row>
+    <row r="24" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="64"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="65">
         <v>16</v>
       </c>
-      <c r="D24" s="89">
+      <c r="D24" s="88">
         <v>5</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <v>0.8</v>
       </c>
-      <c r="F24" s="69"/>
-      <c r="G24" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="79"/>
-    </row>
-    <row r="25" spans="1:8" ht="16" thickBot="1">
-      <c r="A25" s="65"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="66">
+      <c r="F24" s="68"/>
+      <c r="G24" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="78"/>
+    </row>
+    <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="64"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="65">
         <v>17</v>
       </c>
-      <c r="D25" s="89">
+      <c r="D25" s="88">
         <v>5</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <v>0.84</v>
       </c>
-      <c r="F25" s="69"/>
-      <c r="G25" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" s="79"/>
-    </row>
-    <row r="26" spans="1:8" ht="16" thickBot="1">
-      <c r="A26" s="65"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="66">
+      <c r="F25" s="68"/>
+      <c r="G25" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="78"/>
+    </row>
+    <row r="26" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="64"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="65">
         <v>18</v>
       </c>
-      <c r="D26" s="89">
+      <c r="D26" s="88">
         <v>5</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <v>0.88</v>
       </c>
-      <c r="F26" s="69"/>
-      <c r="G26" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="H26" s="79"/>
-    </row>
-    <row r="27" spans="1:8" ht="16" thickBot="1">
-      <c r="A27" s="65"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="66">
+      <c r="F26" s="68"/>
+      <c r="G26" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="78"/>
+    </row>
+    <row r="27" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="64"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="65">
         <v>19</v>
       </c>
-      <c r="D27" s="89">
+      <c r="D27" s="88">
         <v>5</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <v>0.93</v>
       </c>
-      <c r="F27" s="69"/>
-      <c r="G27" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="H27" s="79"/>
-    </row>
-    <row r="28" spans="1:8" ht="16" thickBot="1">
-      <c r="A28" s="65"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="66">
+      <c r="F27" s="68"/>
+      <c r="G27" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="78"/>
+    </row>
+    <row r="28" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="64"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="65">
         <v>20</v>
       </c>
-      <c r="D28" s="89">
+      <c r="D28" s="88">
         <v>5</v>
       </c>
-      <c r="E28" s="88">
+      <c r="E28" s="87">
         <v>0.98</v>
       </c>
-      <c r="F28" s="69"/>
-      <c r="G28" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="H28" s="79"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="65"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="86"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="65"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="78"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="64"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="85"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="64"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="57"/>
       <c r="E30" s="60"/>
       <c r="F30" s="22"/>
-      <c r="G30" s="65"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="65"/>
+      <c r="G30" s="64"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="64"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
       <c r="D31" s="57"/>
       <c r="E31" s="60"/>
       <c r="F31" s="22"/>
-      <c r="G31" s="65"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="65"/>
+      <c r="G31" s="64"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="64"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
       <c r="D32" s="57"/>
       <c r="E32" s="60"/>
       <c r="F32" s="22"/>
-      <c r="G32" s="65"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="65"/>
+      <c r="G32" s="64"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="64"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
       <c r="D33" s="57"/>
       <c r="E33" s="58"/>
       <c r="F33" s="22"/>
-      <c r="G33" s="65"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="65"/>
+      <c r="G33" s="64"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="64"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
       <c r="D34" s="57"/>
       <c r="E34" s="60"/>
       <c r="F34" s="22"/>
-      <c r="G34" s="65"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="65"/>
+      <c r="G34" s="64"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="64"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
       <c r="D35" s="57"/>
-      <c r="E35" s="73"/>
+      <c r="E35" s="72"/>
       <c r="F35" s="22"/>
-      <c r="G35" s="65"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="65"/>
+      <c r="G35" s="64"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="64"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
       <c r="D36" s="57"/>
       <c r="E36" s="60"/>
       <c r="F36" s="22"/>
-      <c r="G36" s="65"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="65"/>
+      <c r="G36" s="64"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="64"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
       <c r="D37" s="57"/>
       <c r="E37" s="60"/>
       <c r="F37" s="22"/>
-      <c r="G37" s="65"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="65"/>
+      <c r="G37" s="64"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="64"/>
       <c r="B38" s="22"/>
       <c r="C38" s="9"/>
       <c r="D38" s="57"/>
       <c r="E38" s="60"/>
       <c r="F38" s="22"/>
-      <c r="G38" s="65"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="65"/>
+      <c r="G38" s="64"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="64"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
       <c r="D39" s="57"/>
       <c r="E39" s="60"/>
       <c r="F39" s="22"/>
-      <c r="G39" s="65"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="65"/>
+      <c r="G39" s="64"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="64"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
       <c r="D40" s="57"/>
       <c r="E40" s="60"/>
       <c r="F40" s="22"/>
-      <c r="G40" s="65"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="65"/>
+      <c r="G40" s="64"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="64"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
-      <c r="G41" s="65"/>
+      <c r="G41" s="64"/>
     </row>
   </sheetData>
   <sortState ref="J10:J48">
@@ -3440,11 +3335,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3459,26 +3349,21 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" customWidth="1"/>
-    <col min="2" max="2" width="3.375" customWidth="1"/>
-    <col min="3" max="3" width="28.75" customWidth="1"/>
-    <col min="4" max="4" width="3.125" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
-    <col min="6" max="6" width="10.25" customWidth="1"/>
-    <col min="7" max="9" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="32.125" customWidth="1"/>
-    <col min="11" max="11" width="93.875" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" customWidth="1"/>
+    <col min="11" max="11" width="93.85546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3488,14 +3373,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy_power_mv_transport_network_electricity.xlsx
+++ b/nodes_source_analyses/energy/energy_power_mv_transport_network_electricity.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE5CBF1-AF10-D848-82E1-A5F1C6FA6E76}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="460" windowWidth="25600" windowHeight="16100" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="1940" yWindow="460" windowWidth="25600" windowHeight="16100" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
   <si>
     <t>Source</t>
   </si>
@@ -184,36 +185,6 @@
   </si>
   <si>
     <t>MW</t>
-  </si>
-  <si>
-    <t>simult_sd</t>
-  </si>
-  <si>
-    <t>simult_se</t>
-  </si>
-  <si>
-    <t>simult_wd</t>
-  </si>
-  <si>
-    <t>simult_we</t>
-  </si>
-  <si>
-    <t>peak_load_units_present</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the summer day</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fal in the same time in the summer evining</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the winter day</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the winter evining</t>
-  </si>
-  <si>
-    <t>The number of units for the present year</t>
   </si>
   <si>
     <t>Author</t>
@@ -331,12 +302,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1025,7 +996,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1067,9 +1038,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1418,6 +1386,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1857,56 +1828,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="12"/>
+    <col min="1" max="1" width="3.5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="17" customFormat="1">
       <c r="A1" s="15"/>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -1915,118 +1886,118 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="37"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" thickBot="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" thickBot="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="40"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="41" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="43" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="48" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="9" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="49" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="44" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" s="46"/>
+      <c r="C23" s="50" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="47" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="49"/>
-      <c r="C23" s="53" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2036,67 +2007,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K40"/>
+  <dimension ref="B1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="24" customWidth="1"/>
     <col min="3" max="3" width="46" style="24" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="24" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="24" customWidth="1"/>
     <col min="7" max="7" width="45" style="24" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="24" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="24" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="24"/>
+    <col min="8" max="8" width="5.1640625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="24" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="24" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11">
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="89" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
+    <row r="2" spans="2:11">
+      <c r="B2" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="92"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
+    <row r="3" spans="2:11">
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="95"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="97"/>
+    <row r="4" spans="2:11" ht="30" customHeight="1">
+      <c r="B4" s="92"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="94"/>
       <c r="F4" s="22"/>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="17" thickBot="1">
       <c r="D5" s="22"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="25"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -2107,12 +2078,12 @@
       <c r="I6" s="11"/>
       <c r="J6" s="26"/>
     </row>
-    <row r="7" spans="2:11" s="31" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="B7" s="54"/>
+    <row r="7" spans="2:11" s="31" customFormat="1" ht="19">
+      <c r="B7" s="51"/>
       <c r="C7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="52" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -2126,9 +2097,9 @@
       <c r="I7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="61"/>
-    </row>
-    <row r="8" spans="2:11" s="31" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="J7" s="58"/>
+    </row>
+    <row r="8" spans="2:11" s="31" customFormat="1" ht="19">
       <c r="B8" s="14"/>
       <c r="C8" s="9"/>
       <c r="D8" s="20"/>
@@ -2139,10 +2110,10 @@
       <c r="I8" s="9"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="2:11" s="31" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" s="31" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="14"/>
       <c r="C9" s="9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="9"/>
@@ -2152,7 +2123,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="17" thickBot="1">
       <c r="B10" s="27"/>
       <c r="C10" s="23" t="s">
         <v>22</v>
@@ -2166,13 +2137,13 @@
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" s="62"/>
+      <c r="I10" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="59"/>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="17" thickBot="1">
       <c r="B11" s="27"/>
       <c r="C11" s="23" t="s">
         <v>23</v>
@@ -2186,16 +2157,16 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
-      <c r="I11" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" s="62"/>
+      <c r="I11" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="59"/>
       <c r="K11" s="22"/>
     </row>
-    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="27"/>
-      <c r="C12" s="65" t="s">
-        <v>75</v>
+      <c r="C12" s="62" t="s">
+        <v>65</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>3</v>
@@ -2206,13 +2177,13 @@
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
-      <c r="I12" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="62"/>
+      <c r="I12" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="59"/>
       <c r="K12" s="22"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="27"/>
       <c r="C13" s="23" t="s">
         <v>25</v>
@@ -2226,13 +2197,13 @@
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
-      <c r="I13" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="J13" s="62"/>
+      <c r="I13" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="59"/>
       <c r="K13" s="22"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="27"/>
       <c r="C14" s="23" t="s">
         <v>26</v>
@@ -2246,13 +2217,13 @@
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
-      <c r="I14" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" s="62"/>
+      <c r="I14" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="59"/>
       <c r="K14" s="22"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="27"/>
       <c r="C15" s="23" t="s">
         <v>27</v>
@@ -2268,12 +2239,12 @@
         <v>20</v>
       </c>
       <c r="H15" s="23"/>
-      <c r="I15" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="J15" s="62"/>
-    </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="59"/>
+    </row>
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="27"/>
       <c r="C16" s="23" t="s">
         <v>28</v>
@@ -2289,15 +2260,15 @@
         <v>39</v>
       </c>
       <c r="H16" s="23"/>
-      <c r="I16" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16" s="62"/>
-    </row>
-    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="59"/>
+    </row>
+    <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="27"/>
       <c r="C17" s="23" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>44</v>
@@ -2308,15 +2279,15 @@
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
-      <c r="I17" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="J17" s="62"/>
-    </row>
-    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="59"/>
+    </row>
+    <row r="18" spans="2:10" ht="17" thickBot="1">
       <c r="B18" s="27"/>
       <c r="C18" s="23" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>44</v>
@@ -2327,18 +2298,18 @@
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
-      <c r="I18" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="J18" s="62"/>
-    </row>
-    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="59"/>
+    </row>
+    <row r="19" spans="2:10" ht="17" thickBot="1">
       <c r="B19" s="27"/>
       <c r="C19" s="23" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E19" s="34">
         <v>142200</v>
@@ -2346,403 +2317,298 @@
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
-      <c r="I19" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="J19" s="62"/>
-    </row>
-    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="59"/>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20" s="27"/>
-      <c r="C20" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="34">
-        <v>1</v>
-      </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="J20" s="62"/>
-    </row>
-    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="35"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="59"/>
+    </row>
+    <row r="21" spans="2:10" ht="17" thickBot="1">
       <c r="B21" s="27"/>
-      <c r="C21" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="34">
-        <v>1</v>
-      </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="J21" s="62"/>
-    </row>
-    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="59"/>
+    </row>
+    <row r="22" spans="2:10" ht="17" thickBot="1">
       <c r="B22" s="27"/>
-      <c r="C22" s="35" t="s">
-        <v>47</v>
+      <c r="C22" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="E22" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="23"/>
-      <c r="G22" s="36" t="s">
-        <v>52</v>
+      <c r="G22" s="23" t="s">
+        <v>6</v>
       </c>
       <c r="H22" s="23"/>
-      <c r="I22" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="J22" s="62"/>
-    </row>
-    <row r="23" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="59"/>
+    </row>
+    <row r="23" spans="2:10" ht="17" thickBot="1">
       <c r="B23" s="27"/>
-      <c r="C23" s="35" t="s">
-        <v>48</v>
+      <c r="C23" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="E23" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="23"/>
-      <c r="G23" s="36" t="s">
-        <v>53</v>
+      <c r="G23" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="H23" s="23"/>
-      <c r="I23" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="J23" s="62"/>
-    </row>
-    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="59"/>
+    </row>
+    <row r="24" spans="2:10" ht="17" thickBot="1">
       <c r="B24" s="27"/>
-      <c r="C24" s="35" t="s">
-        <v>49</v>
+      <c r="C24" s="23" t="s">
+        <v>8</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="E24" s="34">
         <v>0</v>
       </c>
       <c r="F24" s="23"/>
-      <c r="G24" s="37" t="s">
-        <v>54</v>
+      <c r="G24" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="H24" s="23"/>
-      <c r="I24" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="J24" s="62"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I24" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="59"/>
+    </row>
+    <row r="25" spans="2:10" ht="17" thickBot="1">
       <c r="B25" s="27"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="62"/>
-    </row>
-    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="34">
+        <v>0</v>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="I25" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" s="59"/>
+    </row>
+    <row r="26" spans="2:10" ht="17" thickBot="1">
       <c r="B26" s="27"/>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="62"/>
-    </row>
-    <row r="27" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="53">
+        <v>86884.467919999996</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="23"/>
+      <c r="I26" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" s="59"/>
+    </row>
+    <row r="27" spans="2:10" ht="17" thickBot="1">
       <c r="B27" s="27"/>
       <c r="C27" s="23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="34">
+        <v>72</v>
+      </c>
+      <c r="E27" s="33">
         <v>0</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="H27" s="23"/>
-      <c r="I27" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="J27" s="62"/>
-    </row>
-    <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" s="59"/>
+    </row>
+    <row r="28" spans="2:10" ht="17" thickBot="1">
       <c r="B28" s="27"/>
       <c r="C28" s="23" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="34">
+        <v>38</v>
+      </c>
+      <c r="E28" s="56">
         <v>0</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H28" s="23"/>
-      <c r="I28" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="J28" s="62"/>
-    </row>
-    <row r="29" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="J28" s="59"/>
+    </row>
+    <row r="29" spans="2:10" ht="17" thickBot="1">
       <c r="B29" s="27"/>
       <c r="C29" s="23" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="34">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E29" s="63">
+        <v>5.5E-2</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H29" s="23"/>
-      <c r="I29" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="J29" s="62"/>
-    </row>
-    <row r="30" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="J29" s="59"/>
+    </row>
+    <row r="30" spans="2:10" ht="17" thickBot="1">
       <c r="B30" s="27"/>
       <c r="C30" s="23" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="E30" s="34">
         <v>0</v>
       </c>
       <c r="F30" s="23"/>
-      <c r="G30" s="23" t="s">
-        <v>19</v>
-      </c>
+      <c r="G30" s="23"/>
       <c r="H30" s="23"/>
-      <c r="I30" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="J30" s="62"/>
-    </row>
-    <row r="31" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="J30" s="59"/>
+    </row>
+    <row r="31" spans="2:10">
       <c r="B31" s="27"/>
-      <c r="C31" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="56">
-        <v>86884.467919999996</v>
-      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="57"/>
       <c r="F31" s="23"/>
-      <c r="G31" s="23" t="s">
-        <v>41</v>
-      </c>
+      <c r="G31" s="23"/>
       <c r="H31" s="23"/>
-      <c r="I31" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="J31" s="62"/>
-    </row>
-    <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="22"/>
+      <c r="J31" s="59"/>
+    </row>
+    <row r="32" spans="2:10" ht="17" thickBot="1">
       <c r="B32" s="27"/>
-      <c r="C32" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="33">
-        <v>0</v>
-      </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="J32" s="62"/>
-    </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="54"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="59"/>
+    </row>
+    <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="27"/>
       <c r="C33" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="59">
+        <v>1</v>
+      </c>
+      <c r="E33" s="53">
         <v>0</v>
       </c>
       <c r="F33" s="23"/>
       <c r="G33" s="23" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="H33" s="23"/>
-      <c r="I33" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="J33" s="62"/>
-    </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="J33" s="59"/>
+    </row>
+    <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="27"/>
       <c r="C34" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="66">
-        <v>5.5E-2</v>
+        <v>1</v>
+      </c>
+      <c r="E34" s="34">
+        <v>40</v>
       </c>
       <c r="F34" s="23"/>
       <c r="G34" s="23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H34" s="23"/>
-      <c r="I34" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="J34" s="62"/>
-    </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="27"/>
-      <c r="C35" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="34">
-        <v>0</v>
-      </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="J35" s="62"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="27"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="62"/>
-    </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="27"/>
-      <c r="C37" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="62"/>
-    </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="27"/>
-      <c r="C38" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" s="56">
-        <v>0</v>
-      </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="23"/>
-      <c r="I38" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="J38" s="62"/>
-    </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="27"/>
-      <c r="C39" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="34">
-        <v>40</v>
-      </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39" s="23"/>
-      <c r="I39" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="J39" s="62"/>
-    </row>
-    <row r="40" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="28"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="30"/>
+      <c r="I34" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="J34" s="59"/>
+    </row>
+    <row r="35" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B35" s="28"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2754,577 +2620,577 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="63" customWidth="1"/>
-    <col min="2" max="2" width="2.5703125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="24" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="2.5703125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="63" customWidth="1"/>
-    <col min="8" max="8" width="2.5703125" style="63" customWidth="1"/>
-    <col min="9" max="16384" width="10.7109375" style="63"/>
+    <col min="1" max="1" width="2.5" style="60" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="24" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="24" customWidth="1"/>
+    <col min="6" max="6" width="2.5" style="24" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" style="60" customWidth="1"/>
+    <col min="8" max="8" width="2.5" style="60" customWidth="1"/>
+    <col min="9" max="16384" width="10.6640625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="89" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="91"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="92"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="94"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="92"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="94"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="95"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="97"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15" customHeight="1">
+      <c r="B2" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="88"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" s="89"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="91"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" s="92"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="94"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="D6" s="22"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="64"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="77"/>
-    </row>
-    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
-      <c r="B8" s="41"/>
+    <row r="7" spans="1:8">
+      <c r="A7" s="61"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="74"/>
+    </row>
+    <row r="8" spans="1:8" ht="17" thickBot="1">
+      <c r="A8" s="61"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="71" t="s">
-        <v>86</v>
+        <v>75</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>76</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" s="78"/>
-    </row>
-    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="65">
+        <v>62</v>
+      </c>
+      <c r="H8" s="75"/>
+    </row>
+    <row r="9" spans="1:8" ht="17" thickBot="1">
+      <c r="A9" s="61"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="62">
         <v>1</v>
       </c>
-      <c r="D9" s="88">
+      <c r="D9" s="85">
         <v>5</v>
       </c>
-      <c r="E9" s="87">
+      <c r="E9" s="84">
         <v>0.1</v>
       </c>
-      <c r="F9" s="68"/>
-      <c r="G9" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" s="78"/>
-    </row>
-    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="65">
+      <c r="F9" s="65"/>
+      <c r="G9" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="75"/>
+    </row>
+    <row r="10" spans="1:8" ht="17" thickBot="1">
+      <c r="A10" s="61"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="62">
         <v>2</v>
       </c>
-      <c r="D10" s="88">
+      <c r="D10" s="85">
         <v>5</v>
       </c>
-      <c r="E10" s="87">
+      <c r="E10" s="84">
         <v>0.27</v>
       </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="78"/>
-    </row>
-    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="65">
+      <c r="F10" s="65"/>
+      <c r="G10" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="75"/>
+    </row>
+    <row r="11" spans="1:8" ht="17" thickBot="1">
+      <c r="A11" s="61"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="62">
         <v>3</v>
       </c>
-      <c r="D11" s="88">
+      <c r="D11" s="85">
         <v>5</v>
       </c>
-      <c r="E11" s="87">
+      <c r="E11" s="84">
         <v>0.34</v>
       </c>
-      <c r="F11" s="68"/>
-      <c r="G11" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="78"/>
-    </row>
-    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="65">
+      <c r="F11" s="65"/>
+      <c r="G11" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="75"/>
+    </row>
+    <row r="12" spans="1:8" ht="17" thickBot="1">
+      <c r="A12" s="61"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="62">
         <v>4</v>
       </c>
-      <c r="D12" s="88">
+      <c r="D12" s="85">
         <v>5</v>
       </c>
-      <c r="E12" s="87">
+      <c r="E12" s="84">
         <v>0.39</v>
       </c>
-      <c r="F12" s="68"/>
-      <c r="G12" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="78"/>
-    </row>
-    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="65">
+      <c r="F12" s="65"/>
+      <c r="G12" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="75"/>
+    </row>
+    <row r="13" spans="1:8" ht="17" thickBot="1">
+      <c r="A13" s="61"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="62">
         <v>5</v>
       </c>
-      <c r="D13" s="88">
+      <c r="D13" s="85">
         <v>5</v>
       </c>
-      <c r="E13" s="87">
+      <c r="E13" s="84">
         <v>0.44</v>
       </c>
-      <c r="F13" s="68"/>
-      <c r="G13" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="78"/>
-    </row>
-    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="65">
+      <c r="F13" s="65"/>
+      <c r="G13" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="75"/>
+    </row>
+    <row r="14" spans="1:8" ht="17" thickBot="1">
+      <c r="A14" s="61"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="62">
         <v>6</v>
       </c>
-      <c r="D14" s="88">
+      <c r="D14" s="85">
         <v>5</v>
       </c>
-      <c r="E14" s="87">
+      <c r="E14" s="84">
         <v>0.47</v>
       </c>
-      <c r="F14" s="68"/>
-      <c r="G14" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14" s="78"/>
-    </row>
-    <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="65">
+      <c r="F14" s="65"/>
+      <c r="G14" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="75"/>
+    </row>
+    <row r="15" spans="1:8" ht="17" thickBot="1">
+      <c r="A15" s="61"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="62">
         <v>7</v>
       </c>
-      <c r="D15" s="88">
+      <c r="D15" s="85">
         <v>5</v>
       </c>
-      <c r="E15" s="87">
+      <c r="E15" s="84">
         <v>0.51</v>
       </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="78"/>
-    </row>
-    <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="65">
+      <c r="F15" s="65"/>
+      <c r="G15" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="75"/>
+    </row>
+    <row r="16" spans="1:8" ht="17" thickBot="1">
+      <c r="A16" s="61"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="62">
         <v>8</v>
       </c>
-      <c r="D16" s="88">
+      <c r="D16" s="85">
         <v>5</v>
       </c>
-      <c r="E16" s="87">
+      <c r="E16" s="84">
         <v>0.54</v>
       </c>
-      <c r="F16" s="68"/>
-      <c r="G16" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="78"/>
-    </row>
-    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="65">
+      <c r="F16" s="65"/>
+      <c r="G16" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="75"/>
+    </row>
+    <row r="17" spans="1:8" ht="17" thickBot="1">
+      <c r="A17" s="61"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="62">
         <v>9</v>
       </c>
-      <c r="D17" s="88">
+      <c r="D17" s="85">
         <v>5</v>
       </c>
-      <c r="E17" s="87">
+      <c r="E17" s="84">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F17" s="68"/>
-      <c r="G17" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="78"/>
-    </row>
-    <row r="18" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="65">
+      <c r="F17" s="65"/>
+      <c r="G17" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="75"/>
+    </row>
+    <row r="18" spans="1:8" ht="17" thickBot="1">
+      <c r="A18" s="61"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="62">
         <v>10</v>
       </c>
-      <c r="D18" s="88">
+      <c r="D18" s="85">
         <v>5</v>
       </c>
-      <c r="E18" s="87">
+      <c r="E18" s="84">
         <v>0.6</v>
       </c>
-      <c r="F18" s="68"/>
-      <c r="G18" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" s="78"/>
-    </row>
-    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="65">
+      <c r="F18" s="65"/>
+      <c r="G18" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="75"/>
+    </row>
+    <row r="19" spans="1:8" ht="17" thickBot="1">
+      <c r="A19" s="61"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="62">
         <v>11</v>
       </c>
-      <c r="D19" s="88">
+      <c r="D19" s="85">
         <v>5</v>
       </c>
-      <c r="E19" s="87">
+      <c r="E19" s="84">
         <v>0.63</v>
       </c>
-      <c r="F19" s="68"/>
-      <c r="G19" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="78"/>
-    </row>
-    <row r="20" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="64"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="65">
+      <c r="F19" s="65"/>
+      <c r="G19" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="75"/>
+    </row>
+    <row r="20" spans="1:8" ht="17" thickBot="1">
+      <c r="A20" s="61"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="62">
         <v>12</v>
       </c>
-      <c r="D20" s="88">
+      <c r="D20" s="85">
         <v>5</v>
       </c>
-      <c r="E20" s="87">
+      <c r="E20" s="84">
         <v>0.66</v>
       </c>
-      <c r="F20" s="68"/>
-      <c r="G20" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="78"/>
-    </row>
-    <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="65">
+      <c r="F20" s="65"/>
+      <c r="G20" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="75"/>
+    </row>
+    <row r="21" spans="1:8" ht="17" thickBot="1">
+      <c r="A21" s="61"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="62">
         <v>13</v>
       </c>
-      <c r="D21" s="88">
+      <c r="D21" s="85">
         <v>5</v>
       </c>
-      <c r="E21" s="87">
+      <c r="E21" s="84">
         <v>0.69</v>
       </c>
-      <c r="F21" s="68"/>
-      <c r="G21" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" s="78"/>
-    </row>
-    <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="65">
+      <c r="F21" s="65"/>
+      <c r="G21" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="75"/>
+    </row>
+    <row r="22" spans="1:8" ht="17" thickBot="1">
+      <c r="A22" s="61"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="62">
         <v>14</v>
       </c>
-      <c r="D22" s="88">
+      <c r="D22" s="85">
         <v>5</v>
       </c>
-      <c r="E22" s="87">
+      <c r="E22" s="84">
         <v>0.72</v>
       </c>
-      <c r="F22" s="68"/>
-      <c r="G22" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="H22" s="78"/>
-    </row>
-    <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="65">
+      <c r="F22" s="65"/>
+      <c r="G22" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="75"/>
+    </row>
+    <row r="23" spans="1:8" ht="17" thickBot="1">
+      <c r="A23" s="61"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="62">
         <v>15</v>
       </c>
-      <c r="D23" s="88">
+      <c r="D23" s="85">
         <v>5</v>
       </c>
-      <c r="E23" s="87">
+      <c r="E23" s="84">
         <v>0.76</v>
       </c>
-      <c r="F23" s="68"/>
-      <c r="G23" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="H23" s="78"/>
-    </row>
-    <row r="24" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="65">
+      <c r="F23" s="65"/>
+      <c r="G23" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="75"/>
+    </row>
+    <row r="24" spans="1:8" ht="17" thickBot="1">
+      <c r="A24" s="61"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="62">
         <v>16</v>
       </c>
-      <c r="D24" s="88">
+      <c r="D24" s="85">
         <v>5</v>
       </c>
-      <c r="E24" s="87">
+      <c r="E24" s="84">
         <v>0.8</v>
       </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="H24" s="78"/>
-    </row>
-    <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="65">
+      <c r="F24" s="65"/>
+      <c r="G24" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="75"/>
+    </row>
+    <row r="25" spans="1:8" ht="17" thickBot="1">
+      <c r="A25" s="61"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="62">
         <v>17</v>
       </c>
-      <c r="D25" s="88">
+      <c r="D25" s="85">
         <v>5</v>
       </c>
-      <c r="E25" s="87">
+      <c r="E25" s="84">
         <v>0.84</v>
       </c>
-      <c r="F25" s="68"/>
-      <c r="G25" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="H25" s="78"/>
-    </row>
-    <row r="26" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="64"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="65">
+      <c r="F25" s="65"/>
+      <c r="G25" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="75"/>
+    </row>
+    <row r="26" spans="1:8" ht="17" thickBot="1">
+      <c r="A26" s="61"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="62">
         <v>18</v>
       </c>
-      <c r="D26" s="88">
+      <c r="D26" s="85">
         <v>5</v>
       </c>
-      <c r="E26" s="87">
+      <c r="E26" s="84">
         <v>0.88</v>
       </c>
-      <c r="F26" s="68"/>
-      <c r="G26" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="H26" s="78"/>
-    </row>
-    <row r="27" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="65">
+      <c r="F26" s="65"/>
+      <c r="G26" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="75"/>
+    </row>
+    <row r="27" spans="1:8" ht="17" thickBot="1">
+      <c r="A27" s="61"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="62">
         <v>19</v>
       </c>
-      <c r="D27" s="88">
+      <c r="D27" s="85">
         <v>5</v>
       </c>
-      <c r="E27" s="87">
+      <c r="E27" s="84">
         <v>0.93</v>
       </c>
-      <c r="F27" s="68"/>
-      <c r="G27" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="H27" s="78"/>
-    </row>
-    <row r="28" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="64"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="65">
+      <c r="F27" s="65"/>
+      <c r="G27" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="75"/>
+    </row>
+    <row r="28" spans="1:8" ht="17" thickBot="1">
+      <c r="A28" s="61"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="62">
         <v>20</v>
       </c>
-      <c r="D28" s="88">
+      <c r="D28" s="85">
         <v>5</v>
       </c>
-      <c r="E28" s="87">
+      <c r="E28" s="84">
         <v>0.98</v>
       </c>
-      <c r="F28" s="68"/>
-      <c r="G28" s="86" t="s">
-        <v>88</v>
-      </c>
-      <c r="H28" s="78"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="64"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="85"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="64"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="75"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="61"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="82"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="61"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="60"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="57"/>
       <c r="F30" s="22"/>
-      <c r="G30" s="64"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="64"/>
+      <c r="G30" s="61"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="61"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="60"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="57"/>
       <c r="F31" s="22"/>
-      <c r="G31" s="64"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="64"/>
+      <c r="G31" s="61"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="61"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="60"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="57"/>
       <c r="F32" s="22"/>
-      <c r="G32" s="64"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="64"/>
+      <c r="G32" s="61"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="61"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="58"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="55"/>
       <c r="F33" s="22"/>
-      <c r="G33" s="64"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="64"/>
+      <c r="G33" s="61"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="61"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="60"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="57"/>
       <c r="F34" s="22"/>
-      <c r="G34" s="64"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="64"/>
+      <c r="G34" s="61"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="61"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="72"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="69"/>
       <c r="F35" s="22"/>
-      <c r="G35" s="64"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="64"/>
+      <c r="G35" s="61"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="61"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="60"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="57"/>
       <c r="F36" s="22"/>
-      <c r="G36" s="64"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="64"/>
+      <c r="G36" s="61"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="61"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="60"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="57"/>
       <c r="F37" s="22"/>
-      <c r="G37" s="64"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="64"/>
+      <c r="G37" s="61"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="61"/>
       <c r="B38" s="22"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="60"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="57"/>
       <c r="F38" s="22"/>
-      <c r="G38" s="64"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="64"/>
+      <c r="G38" s="61"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="61"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="60"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="57"/>
       <c r="F39" s="22"/>
-      <c r="G39" s="64"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="64"/>
+      <c r="G39" s="61"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="61"/>
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="60"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="57"/>
       <c r="F40" s="22"/>
-      <c r="G40" s="64"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="64"/>
+      <c r="G40" s="61"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="61"/>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
-      <c r="G41" s="64"/>
+      <c r="G41" s="61"/>
     </row>
   </sheetData>
   <sortState ref="J10:J48">
@@ -3339,8 +3205,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1"/>
@@ -3349,17 +3215,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="32.140625" customWidth="1"/>
-    <col min="11" max="11" width="93.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="3.5" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" customWidth="1"/>
+    <col min="10" max="10" width="32.1640625" customWidth="1"/>
+    <col min="11" max="11" width="93.83203125" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3368,12 +3234,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/nodes_source_analyses/energy/energy_power_mv_transport_network_electricity.xlsx
+++ b/nodes_source_analyses/energy/energy_power_mv_transport_network_electricity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE5CBF1-AF10-D848-82E1-A5F1C6FA6E76}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17556C7A-564D-7B46-A263-52D2C3B177E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="460" windowWidth="25600" windowHeight="16100" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="83">
   <si>
     <t>Source</t>
   </si>
@@ -297,6 +297,9 @@
   <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
+  </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
 </sst>
 </file>
@@ -1834,12 +1837,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="19" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="12" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="12"/>
+    <col min="1" max="1" width="3.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="17" customFormat="1">
@@ -2013,23 +2016,23 @@
   </sheetPr>
   <dimension ref="B1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="D11" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="24" customWidth="1"/>
     <col min="3" max="3" width="46" style="24" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="24" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="24" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="24" customWidth="1"/>
     <col min="7" max="7" width="45" style="24" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="24" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="24" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="24"/>
+    <col min="8" max="8" width="5.140625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="24" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -2502,15 +2505,15 @@
         <v>2</v>
       </c>
       <c r="E29" s="63">
-        <v>5.5E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F29" s="23"/>
       <c r="G29" s="23" t="s">
         <v>15</v>
       </c>
       <c r="H29" s="23"/>
-      <c r="I29" s="66" t="s">
-        <v>73</v>
+      <c r="I29" s="67" t="s">
+        <v>82</v>
       </c>
       <c r="J29" s="59"/>
     </row>
@@ -2628,17 +2631,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="60" customWidth="1"/>
-    <col min="2" max="2" width="2.5" style="24" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="24" customWidth="1"/>
-    <col min="6" max="6" width="2.5" style="24" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" style="60" customWidth="1"/>
-    <col min="8" max="8" width="2.5" style="60" customWidth="1"/>
-    <col min="9" max="16384" width="10.6640625" style="60"/>
+    <col min="1" max="1" width="2.42578125" style="60" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="2.42578125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="60" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" style="60" customWidth="1"/>
+    <col min="9" max="16384" width="10.7109375" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3193,7 +3196,7 @@
       <c r="G41" s="61"/>
     </row>
   </sheetData>
-  <sortState ref="J10:J48">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J10:J48">
     <sortCondition ref="J10"/>
   </sortState>
   <mergeCells count="1">
@@ -3215,17 +3218,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="3.5" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="9" width="12.1640625" customWidth="1"/>
-    <col min="10" max="10" width="32.1640625" customWidth="1"/>
-    <col min="11" max="11" width="93.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" customWidth="1"/>
+    <col min="11" max="11" width="93.85546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
